--- a/IMBD Movie Ratings.xlsx
+++ b/IMBD Movie Ratings.xlsx
@@ -517,7 +517,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>The Godfather Part II</t>
+          <t>The Godfather: Part II</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -549,7 +549,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>8.9</t>
+          <t>9.0</t>
         </is>
       </c>
     </row>
@@ -649,7 +649,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Il buono, il brutto, il cattivo</t>
+          <t>The Good, the Bad and the Ugly</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -715,12 +715,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Inception</t>
+          <t>The Lord of the Rings: The Two Towers</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2010</t>
+          <t>2002</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -737,12 +737,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>The Lord of the Rings: The Two Towers</t>
+          <t>Inception</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2002</t>
+          <t>2010</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>The Empire Strikes Back</t>
+          <t>Star Wars: Episode V - The Empire Strikes Back</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -847,7 +847,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Se7en</t>
+          <t>Seven</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -869,7 +869,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Shichinin no samurai</t>
+          <t>Seven Samurai</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -935,7 +935,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Cidade de Deus</t>
+          <t>City of God</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>La vita è bella</t>
+          <t>Life Is Beautiful</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1001,12 +1001,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>The Green Mile</t>
+          <t>Interstellar</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>1999</t>
+          <t>2014</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1023,12 +1023,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Interstellar</t>
+          <t>The Green Mile</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>2014</t>
+          <t>1999</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>8.6</t>
+          <t>8.5</t>
         </is>
       </c>
     </row>
@@ -1111,7 +1111,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Sen to Chihiro no kamikakushi</t>
+          <t>Spirited Away</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1177,12 +1177,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Léon</t>
+          <t>Parasite</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>1994</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1199,12 +1199,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Gisaengchung</t>
+          <t>Leon</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>1994</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1353,12 +1353,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Casablanca</t>
+          <t>Whiplash</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>1942</t>
+          <t>2014</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1375,12 +1375,12 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Whiplash</t>
+          <t>Casablanca</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>2014</t>
+          <t>1942</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1397,12 +1397,12 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>The Intouchables</t>
+          <t>Harakiri</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>2011</t>
+          <t>1962</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1419,7 +1419,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Hotaru no haka</t>
+          <t>Grave of the Fireflies</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1441,12 +1441,12 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Seppuku</t>
+          <t>Untouchable</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>1962</t>
+          <t>2011</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1529,12 +1529,12 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Alien</t>
+          <t>Cinema Paradiso</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>1979</t>
+          <t>1988</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1551,12 +1551,12 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>City Lights</t>
+          <t>Alien</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>1931</t>
+          <t>1979</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1573,12 +1573,12 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Nuovo Cinema Paradiso</t>
+          <t>City Lights</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>1988</t>
+          <t>1931</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1859,12 +1859,12 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Top Gun: Maverick</t>
+          <t>Aliens</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>1986</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -1881,12 +1881,12 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Aliens</t>
+          <t>Spider-Man: Into the Spider-Verse</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>1986</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -1947,12 +1947,12 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Spider-Man: Into the Spider-Verse</t>
+          <t>The Dark Knight Rises</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2012</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -1969,12 +1969,12 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>The Dark Knight Rises</t>
+          <t>Oldboy</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>2012</t>
+          <t>2003</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -1991,12 +1991,12 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Oldeuboi</t>
+          <t>Amadeus</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>2003</t>
+          <t>1984</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2013,12 +2013,12 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Joker</t>
+          <t>Inglourious Basterds</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2009</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2035,12 +2035,12 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Amadeus</t>
+          <t>Joker</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>1984</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2057,12 +2057,12 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Braveheart</t>
+          <t>Coco</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>1995</t>
+          <t>2017</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2101,12 +2101,12 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Coco</t>
+          <t>Braveheart</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>1995</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2123,12 +2123,12 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Inglourious Basterds</t>
+          <t>Das Boot</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>2009</t>
+          <t>1981</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2145,12 +2145,12 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Das Boot</t>
+          <t>Avengers: Endgame</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>1981</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2167,7 +2167,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Mononoke-hime</t>
+          <t>Princess Mononoke</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -2189,12 +2189,12 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Avengers: Endgame</t>
+          <t>Once Upon a Time in America</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>1984</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2211,12 +2211,12 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Once Upon a Time in America</t>
+          <t>Good Will Hunting</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>1984</t>
+          <t>1997</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -2233,12 +2233,12 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Good Will Hunting</t>
+          <t>Your Name.</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>1997</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2255,12 +2255,12 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Kimi no na wa.</t>
+          <t>Requiem for a Dream</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2000</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -2277,12 +2277,12 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Requiem for a Dream</t>
+          <t>Singin' in the Rain</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>2000</t>
+          <t>1952</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -2299,12 +2299,12 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Toy Story 3</t>
+          <t>3 Idiots</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>2010</t>
+          <t>2009</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -2321,12 +2321,12 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Singin' in the Rain</t>
+          <t>Toy Story 3</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>1952</t>
+          <t>2010</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -2343,12 +2343,12 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>3 Idiots</t>
+          <t>Top Gun: Maverick</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>2009</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -2365,12 +2365,12 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Star Wars: Episode VI - Return of the Jedi</t>
+          <t>High and Low</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>1983</t>
+          <t>1963</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -2387,12 +2387,12 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Tengoku to jigoku</t>
+          <t>Star Wars: Return of the Jedi</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>1963</t>
+          <t>1983</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -2409,12 +2409,12 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>2001: A Space Odyssey</t>
+          <t>Capernaum</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>1968</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -2453,12 +2453,12 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Reservoir Dogs</t>
+          <t>2001: A Space Odyssey</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>1992</t>
+          <t>1968</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -2475,12 +2475,12 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Capharnaüm</t>
+          <t>Reservoir Dogs</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>1992</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -2497,7 +2497,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Jagten</t>
+          <t>The Hunt</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -2519,12 +2519,12 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Lawrence of Arabia</t>
+          <t>Come and See</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>1962</t>
+          <t>1985</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -2563,7 +2563,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>M - Eine Stadt sucht einen Mörder</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -2585,12 +2585,12 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>North by Northwest</t>
+          <t>Lawrence of Arabia</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>1959</t>
+          <t>1962</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -2607,12 +2607,12 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Idi i smotri</t>
+          <t>North by Northwest</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>1985</t>
+          <t>1959</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -2651,7 +2651,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Le fabuleux destin d'Amélie Poulain</t>
+          <t>Amélie</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -2673,12 +2673,12 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>A Clockwork Orange</t>
+          <t>The Apartment</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>1971</t>
+          <t>1960</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -2695,12 +2695,12 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Double Indemnity</t>
+          <t>A Clockwork Orange</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>1944</t>
+          <t>1971</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -2717,12 +2717,12 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Full Metal Jacket</t>
+          <t>Ikiru</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>1987</t>
+          <t>1952</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -2739,12 +2739,12 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>The Apartment</t>
+          <t>Double Indemnity</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>1960</t>
+          <t>1944</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -2761,12 +2761,12 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Scarface</t>
+          <t>Full Metal Jacket</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>1983</t>
+          <t>1987</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -2783,12 +2783,12 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Ikiru</t>
+          <t>Hamilton</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>1952</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -2805,12 +2805,12 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>The Sting</t>
+          <t>Scarface</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>1973</t>
+          <t>1983</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -2849,12 +2849,12 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Taxi Driver</t>
+          <t>The Sting</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>1976</t>
+          <t>1973</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -2871,12 +2871,12 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Heat</t>
+          <t>Incendies</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>1995</t>
+          <t>2010</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -2915,12 +2915,12 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>L.A. Confidential</t>
+          <t>Heat</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>1997</t>
+          <t>1995</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -2937,12 +2937,12 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Incendies</t>
+          <t>Taxi Driver</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>2010</t>
+          <t>1976</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -2959,12 +2959,12 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Metropolis</t>
+          <t>A Separation</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>1927</t>
+          <t>2011</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -2981,12 +2981,12 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Jodaeiye Nader az Simin</t>
+          <t>Metropolis</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>2011</t>
+          <t>1927</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -3003,12 +3003,12 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Die Hard</t>
+          <t>L.A. Confidential</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>1988</t>
+          <t>1997</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -3025,12 +3025,12 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Snatch</t>
+          <t>Die Hard</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>2000</t>
+          <t>1988</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -3047,12 +3047,12 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Hamilton</t>
+          <t>Snatch</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2000</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -3091,7 +3091,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Ladri di biciclette</t>
+          <t>Bicycle Thieves</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -3113,12 +3113,12 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>1917</t>
+          <t>Like Stars on Earth</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2007</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -3135,12 +3135,12 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Taare Zameen Par</t>
+          <t>1917</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>2007</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -3157,7 +3157,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Der Untergang</t>
+          <t>Downfall</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -3179,7 +3179,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Per qualche dollaro in più</t>
+          <t>For a Few Dollars More</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -3201,12 +3201,12 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Batman Begins</t>
+          <t>Dangal</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>2005</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -3223,12 +3223,12 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Dangal</t>
+          <t>Batman Begins</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2005</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -3289,12 +3289,12 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>All About Eve</t>
+          <t>The Father</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>1950</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -3311,12 +3311,12 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>The Father</t>
+          <t>All About Eve</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>1950</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -3399,12 +3399,12 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Spider-Man: No Way Home</t>
+          <t>Casino</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>1995</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -3443,12 +3443,12 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Casino</t>
+          <t>Pan's Labyrinth</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>1995</t>
+          <t>2006</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -3487,12 +3487,12 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Pan's Labyrinth</t>
+          <t>There Will Be Blood</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>2006</t>
+          <t>2007</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -3509,12 +3509,12 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>There Will Be Blood</t>
+          <t>The Truman Show</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>2007</t>
+          <t>1998</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -3531,12 +3531,12 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>The Truman Show</t>
+          <t>The Sixth Sense</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>1998</t>
+          <t>1999</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -3553,12 +3553,12 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>The Sixth Sense</t>
+          <t>A Beautiful Mind</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>1999</t>
+          <t>2001</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -3575,12 +3575,12 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>A Beautiful Mind</t>
+          <t>Shutter Island</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>2001</t>
+          <t>2010</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -3597,17 +3597,17 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Monty Python and the Holy Grail</t>
+          <t>Yojimbo</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>1975</t>
+          <t>1961</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>8.2</t>
+          <t>8.1</t>
         </is>
       </c>
     </row>
@@ -3619,12 +3619,12 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Yôjinbô</t>
+          <t>The Treasure of the Sierra Madre</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>1961</t>
+          <t>1948</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -3641,12 +3641,12 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>The Treasure of the Sierra Madre</t>
+          <t>Monty Python and the Holy Grail</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>1948</t>
+          <t>1975</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -3663,12 +3663,12 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Shutter Island</t>
+          <t>Jurassic Park</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>2010</t>
+          <t>1993</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -3685,12 +3685,12 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Jurassic Park</t>
+          <t>Spider-Man: No Way Home</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>1993</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -3707,12 +3707,12 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Rashômon</t>
+          <t>The Great Escape</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>1950</t>
+          <t>1963</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -3729,12 +3729,12 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>The Great Escape</t>
+          <t>Rashomon</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>1963</t>
+          <t>1950</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -3751,12 +3751,12 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Kill Bill: Vol. 1</t>
+          <t>No Country for Old Men</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>2003</t>
+          <t>2007</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -3773,12 +3773,12 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>No Country for Old Men</t>
+          <t>Kill Bill: Vol. 1</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>2007</t>
+          <t>2003</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -3795,12 +3795,12 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Finding Nemo</t>
+          <t>The Thing</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>2003</t>
+          <t>1982</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
@@ -3817,12 +3817,12 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>The Elephant Man</t>
+          <t>Finding Nemo</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>1980</t>
+          <t>2003</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
@@ -3839,12 +3839,12 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Chinatown</t>
+          <t>The Elephant Man</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>1974</t>
+          <t>1980</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
@@ -3861,12 +3861,12 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Raging Bull</t>
+          <t>Chinatown</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>1980</t>
+          <t>1974</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
@@ -3883,12 +3883,12 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>The Thing</t>
+          <t>Raging Bull</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>1982</t>
+          <t>1980</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -3905,12 +3905,12 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Gone with the Wind</t>
+          <t>V for Vendetta</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>1939</t>
+          <t>2005</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
@@ -3927,12 +3927,12 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>V for Vendetta</t>
+          <t>Gone with the Wind</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>2005</t>
+          <t>1939</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
@@ -4015,7 +4015,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>El secreto de sus ojos</t>
+          <t>The Secret in Their Eyes</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -4037,7 +4037,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Hauru no ugoku shiro</t>
+          <t>Howl's Moving Castle</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -4147,12 +4147,12 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Gran Torino</t>
+          <t>Prisoners</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>2008</t>
+          <t>2013</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
@@ -4191,12 +4191,12 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Prisoners</t>
+          <t>Gran Torino</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>2013</t>
+          <t>2008</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
@@ -4213,7 +4213,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Tonari no Totoro</t>
+          <t>My Neighbour Totoro</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -4235,12 +4235,12 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Million Dollar Baby</t>
+          <t>Catch Me If You Can</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>2004</t>
+          <t>2002</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
@@ -4257,12 +4257,12 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Catch Me If You Can</t>
+          <t>Million Dollar Baby</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>2002</t>
+          <t>2004</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
@@ -4279,12 +4279,12 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>The Gold Rush</t>
+          <t>Children of Heaven</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>1925</t>
+          <t>1997</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
@@ -4323,12 +4323,12 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>On the Waterfront</t>
+          <t>The Gold Rush</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>1954</t>
+          <t>1925</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
@@ -4345,12 +4345,12 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Bacheha-Ye aseman</t>
+          <t>On the Waterfront</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>1997</t>
+          <t>1954</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
@@ -4367,12 +4367,12 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>The Third Man</t>
+          <t>Before Sunrise</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>1949</t>
+          <t>1995</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
@@ -4389,12 +4389,12 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Before Sunrise</t>
+          <t>12 Years a Slave</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>1995</t>
+          <t>2013</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
@@ -4411,12 +4411,12 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Ben-Hur</t>
+          <t>Harry Potter and the Deathly Hallows: Part 2</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>1959</t>
+          <t>2011</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
@@ -4433,12 +4433,12 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>12 Years a Slave</t>
+          <t>Ben-Hur</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>2013</t>
+          <t>1959</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
@@ -4455,12 +4455,12 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Smultronstället</t>
+          <t>Gone Girl</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>1957</t>
+          <t>2014</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
@@ -4477,12 +4477,12 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Harry Potter and the Deathly Hallows: Part 2</t>
+          <t>Wild Strawberries</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>2011</t>
+          <t>1957</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
@@ -4499,12 +4499,12 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Gone Girl</t>
+          <t>The Third Man</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>2014</t>
+          <t>1949</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
@@ -4543,12 +4543,12 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>The Deer Hunter</t>
+          <t>Klaus</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>1978</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
@@ -4565,12 +4565,12 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>In the Name of the Father</t>
+          <t>The Grand Budapest Hotel</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>1993</t>
+          <t>2014</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
@@ -4587,12 +4587,12 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>The Grand Budapest Hotel</t>
+          <t>The Deer Hunter</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>2014</t>
+          <t>1978</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
@@ -4609,12 +4609,12 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Barry Lyndon</t>
+          <t>In the Name of the Father</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>1975</t>
+          <t>1993</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
@@ -4631,7 +4631,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Le salaire de la peur</t>
+          <t>The Wages of Fear</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -4653,12 +4653,12 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Mr. Smith Goes to Washington</t>
+          <t>Barry Lyndon</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>1939</t>
+          <t>1975</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
@@ -4719,12 +4719,12 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Salinui chueok</t>
+          <t>Mr. Smith Goes to Washington</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>2003</t>
+          <t>1939</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
@@ -4741,12 +4741,12 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Klaus</t>
+          <t>Memories of Murder</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2003</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
@@ -4763,7 +4763,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Relatos salvajes</t>
+          <t>Wild Tales</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -4785,12 +4785,12 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Everything Everywhere All at Once</t>
+          <t>The Seventh Seal</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>1957</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
@@ -4807,12 +4807,12 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Det sjunde inseglet</t>
+          <t>Mad Max: Fury Road</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>1957</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
@@ -4851,12 +4851,12 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Mad Max: Fury Road</t>
+          <t>Mary and Max</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2009</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
@@ -4895,12 +4895,12 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>The Big Lebowski</t>
+          <t>Monsters, Inc.</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>1998</t>
+          <t>2001</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
@@ -4917,12 +4917,12 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Mary and Max.</t>
+          <t>The Big Lebowski</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>2009</t>
+          <t>1998</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
@@ -4961,12 +4961,12 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Monsters, Inc.</t>
+          <t>Dead Poets Society</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>2001</t>
+          <t>1989</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
@@ -4983,12 +4983,12 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Tôkyô monogatari</t>
+          <t>The Passion of Joan of Arc</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>1953</t>
+          <t>1928</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
@@ -5005,12 +5005,12 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Dead Poets Society</t>
+          <t>Tokyo Story</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>1989</t>
+          <t>1953</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
@@ -5027,12 +5027,12 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>La passion de Jeanne d'Arc</t>
+          <t>Hotel Rwanda</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>1928</t>
+          <t>2004</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
@@ -5049,17 +5049,17 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Hotel Rwanda</t>
+          <t>Le Mans '66</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>2004</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>8.1</t>
+          <t>8.0</t>
         </is>
       </c>
     </row>
@@ -5093,12 +5093,12 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Ford v Ferrari</t>
+          <t>Platoon</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>1986</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
@@ -5115,12 +5115,12 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Platoon</t>
+          <t>Spotlight</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>1986</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
@@ -5137,12 +5137,12 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Pather Panchali</t>
+          <t>The Terminator</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>1955</t>
+          <t>1984</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
@@ -5181,12 +5181,12 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>The Terminator</t>
+          <t>Ratatouille</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>1984</t>
+          <t>2007</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
@@ -5203,12 +5203,12 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Spotlight</t>
+          <t>Logan</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2017</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
@@ -5247,12 +5247,12 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Logan</t>
+          <t>Network</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>1976</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
@@ -5269,12 +5269,12 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Network</t>
+          <t>Pather Panchali</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>1976</t>
+          <t>1955</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
@@ -5291,7 +5291,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Ratatouille</t>
+          <t>Into the Wild</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -5313,12 +5313,12 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Into the Wild</t>
+          <t>The Wizard of Oz</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>2007</t>
+          <t>1939</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
@@ -5335,12 +5335,12 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>The Wizard of Oz</t>
+          <t>Before Sunset</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>1939</t>
+          <t>2004</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
@@ -5379,12 +5379,12 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Before Sunset</t>
+          <t>The Best Years of Our Lives</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>2004</t>
+          <t>1946</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
@@ -5423,12 +5423,12 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>The Best Years of Our Lives</t>
+          <t>To Be or Not to Be</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>1946</t>
+          <t>1942</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
@@ -5467,12 +5467,12 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>To Be or Not to Be</t>
+          <t>Jai Bhim</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>1942</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
@@ -5489,7 +5489,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>La battaglia di Algeri</t>
+          <t>The Battle of Algiers</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -5511,12 +5511,12 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>The Grapes of Wrath</t>
+          <t>Hachi: A Dog's Tale</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>1940</t>
+          <t>2009</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
@@ -5533,12 +5533,12 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Rebecca</t>
+          <t>La haine</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>1940</t>
+          <t>1995</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
@@ -5555,12 +5555,12 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Hachi: A Dog's Tale</t>
+          <t>My Father and My Son</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>2009</t>
+          <t>2005</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
@@ -5577,12 +5577,12 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Cool Hand Luke</t>
+          <t>Pirates of the Caribbean: The Curse of the Black Pearl</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>1967</t>
+          <t>2003</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
@@ -5599,12 +5599,12 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Pirates of the Caribbean: The Curse of the Black Pearl</t>
+          <t>The Grapes of Wrath</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>2003</t>
+          <t>1940</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
@@ -5621,12 +5621,12 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Amores perros</t>
+          <t>Rebecca</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>2000</t>
+          <t>1940</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
@@ -5643,12 +5643,12 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>La haine</t>
+          <t>Amores perros</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>1995</t>
+          <t>2000</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
@@ -5665,12 +5665,12 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Jai Bhim</t>
+          <t>Cool Hand Luke</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>1967</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
@@ -5687,12 +5687,12 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Babam ve Oglum</t>
+          <t>The 400 Blows</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>2005</t>
+          <t>1959</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
@@ -5709,12 +5709,12 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Les quatre cents coups</t>
+          <t>The Handmaiden</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>1959</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
@@ -5731,12 +5731,12 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Persona</t>
+          <t>The Sound of Music</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>1966</t>
+          <t>1965</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
@@ -5775,12 +5775,12 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>The Sound of Music</t>
+          <t>Persona</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>1965</t>
+          <t>1966</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
@@ -5819,12 +5819,12 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>Ah-ga-ssi</t>
+          <t>Dersu Uzala</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>1975</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
@@ -5841,12 +5841,12 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>Dersu Uzala</t>
+          <t>The Iron Giant</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>1975</t>
+          <t>1999</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
@@ -5885,12 +5885,12 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Gandhi</t>
+          <t>The Help</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>1982</t>
+          <t>2011</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
@@ -5907,12 +5907,12 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>The Help</t>
+          <t>Gandhi</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>2011</t>
+          <t>1982</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
@@ -5929,12 +5929,12 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>The Iron Giant</t>
+          <t>Rififi</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>1999</t>
+          <t>1955</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
